--- a/tongubako/master_data/htfred.xlsx
+++ b/tongubako/master_data/htfred.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tongubako\tongubako\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E9BB7A-788E-4593-B9CB-F7D5ECCAF324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB030AA6-77FE-4BE9-8CEA-D5EDCA93A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{F733D9DB-A9F2-4553-80EA-C1A51D57A70E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F733D9DB-A9F2-4553-80EA-C1A51D57A70E}"/>
   </bookViews>
   <sheets>
     <sheet name="UNITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>FRED_UNIT</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>yoy</t>
-  </si>
-  <si>
-    <t>ytd</t>
   </si>
   <si>
     <t>pop</t>
@@ -513,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5E39A4-6D23-4F06-93EC-B47DAA8B77E5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +539,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -553,53 +550,42 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -775,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3199795C-2023-41C4-A1F3-C443C487C25C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,10 +774,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
